--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>750.6505460320152</v>
+        <v>897.4177985552345</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.073193445859</v>
+        <v>1227.886623262332</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.0507693696661</v>
+        <v>1110.698847287874</v>
       </c>
       <c r="AD2" t="n">
-        <v>750650.5460320152</v>
+        <v>897417.7985552346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027073.193445859</v>
+        <v>1227886.623262333</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.06047331596299e-07</v>
+        <v>1.306216195560204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>929050.7693696661</v>
+        <v>1110698.847287874</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.8919720490508</v>
+        <v>658.0405020443156</v>
       </c>
       <c r="AB3" t="n">
-        <v>746.9134792116222</v>
+        <v>900.3600455950997</v>
       </c>
       <c r="AC3" t="n">
-        <v>675.6291050553164</v>
+        <v>814.4309465067632</v>
       </c>
       <c r="AD3" t="n">
-        <v>545891.9720490507</v>
+        <v>658040.5020443157</v>
       </c>
       <c r="AE3" t="n">
-        <v>746913.4792116222</v>
+        <v>900360.0455950997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157902207241611e-06</v>
+        <v>1.669306407325529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>675629.1050553164</v>
+        <v>814430.9465067632</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.9510661344898</v>
+        <v>594.4662283342712</v>
       </c>
       <c r="AB4" t="n">
-        <v>671.7409079176159</v>
+        <v>813.3749196060068</v>
       </c>
       <c r="AC4" t="n">
-        <v>607.6308984602434</v>
+        <v>735.7475588576782</v>
       </c>
       <c r="AD4" t="n">
-        <v>490951.0661344898</v>
+        <v>594466.2283342712</v>
       </c>
       <c r="AE4" t="n">
-        <v>671740.907917616</v>
+        <v>813374.9196060067</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.253695757718752e-06</v>
+        <v>1.807408560160088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>607630.8984602435</v>
+        <v>735747.5588576782</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.9415782736739</v>
+        <v>565.3713996188836</v>
       </c>
       <c r="AB5" t="n">
-        <v>632.0488468181675</v>
+        <v>773.5660913843606</v>
       </c>
       <c r="AC5" t="n">
-        <v>571.7269919639688</v>
+        <v>699.7380293294647</v>
       </c>
       <c r="AD5" t="n">
-        <v>461941.5782736739</v>
+        <v>565371.3996188836</v>
       </c>
       <c r="AE5" t="n">
-        <v>632048.8468181675</v>
+        <v>773566.0913843606</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307941423242358e-06</v>
+        <v>1.885612605771081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.2421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>571726.9919639687</v>
+        <v>699738.0293294647</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.5222878929787</v>
+        <v>545.037360584209</v>
       </c>
       <c r="AB6" t="n">
-        <v>604.1102728837865</v>
+        <v>745.7441621026287</v>
       </c>
       <c r="AC6" t="n">
-        <v>546.4548363138503</v>
+        <v>674.5713859300583</v>
       </c>
       <c r="AD6" t="n">
-        <v>441522.2878929788</v>
+        <v>545037.360584209</v>
       </c>
       <c r="AE6" t="n">
-        <v>604110.2728837865</v>
+        <v>745744.1621026287</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.338588823772691e-06</v>
+        <v>1.92979587250397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>546454.8363138502</v>
+        <v>674571.3859300583</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>432.2108348114514</v>
+        <v>527.0926292157492</v>
       </c>
       <c r="AB7" t="n">
-        <v>591.3699319853231</v>
+        <v>721.1913889786272</v>
       </c>
       <c r="AC7" t="n">
-        <v>534.9304156695555</v>
+        <v>652.3618950129779</v>
       </c>
       <c r="AD7" t="n">
-        <v>432210.8348114514</v>
+        <v>527092.6292157492</v>
       </c>
       <c r="AE7" t="n">
-        <v>591369.9319853231</v>
+        <v>721191.3889786272</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36017971904349e-06</v>
+        <v>1.960922697887003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>534930.4156695555</v>
+        <v>652361.8950129779</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>423.7166813136613</v>
+        <v>518.5984757179591</v>
       </c>
       <c r="AB8" t="n">
-        <v>579.7478564340419</v>
+        <v>709.5693134273459</v>
       </c>
       <c r="AC8" t="n">
-        <v>524.417534697203</v>
+        <v>641.8490140406254</v>
       </c>
       <c r="AD8" t="n">
-        <v>423716.6813136613</v>
+        <v>518598.4757179591</v>
       </c>
       <c r="AE8" t="n">
-        <v>579747.8564340419</v>
+        <v>709569.3134273459</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>1.989593027861428e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.01822916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>524417.534697203</v>
+        <v>641849.0140406254</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>409.5264769533051</v>
+        <v>512.9562087899639</v>
       </c>
       <c r="AB9" t="n">
-        <v>560.332192800569</v>
+        <v>701.8493148972137</v>
       </c>
       <c r="AC9" t="n">
-        <v>506.8548747508538</v>
+        <v>634.8658013351229</v>
       </c>
       <c r="AD9" t="n">
-        <v>409526.4769533051</v>
+        <v>512956.2087899638</v>
       </c>
       <c r="AE9" t="n">
-        <v>560332.192800569</v>
+        <v>701849.3148972137</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388142846107723e-06</v>
+        <v>2.001236143085784e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.90104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>506854.8747508538</v>
+        <v>634865.8013351229</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>402.2708194672516</v>
+        <v>497.2378652175701</v>
       </c>
       <c r="AB10" t="n">
-        <v>550.4046821311335</v>
+        <v>680.342783777087</v>
       </c>
       <c r="AC10" t="n">
-        <v>497.8748317663606</v>
+        <v>615.4118233604953</v>
       </c>
       <c r="AD10" t="n">
-        <v>402270.8194672516</v>
+        <v>497237.86521757</v>
       </c>
       <c r="AE10" t="n">
-        <v>550404.6821311335</v>
+        <v>680342.783777087</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.400327113492974e-06</v>
+        <v>2.018801767788426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.70572916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>497874.8317663606</v>
+        <v>615411.8233604953</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>396.0853509385623</v>
+        <v>491.0523966888806</v>
       </c>
       <c r="AB11" t="n">
-        <v>541.9414512065687</v>
+        <v>671.8795528525221</v>
       </c>
       <c r="AC11" t="n">
-        <v>490.2193197230168</v>
+        <v>607.7563113171514</v>
       </c>
       <c r="AD11" t="n">
-        <v>396085.3509385623</v>
+        <v>491052.3966888806</v>
       </c>
       <c r="AE11" t="n">
-        <v>541941.4512065686</v>
+        <v>671879.5528525221</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.408776739534086e-06</v>
+        <v>2.030983292965353e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.57552083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>490219.3197230168</v>
+        <v>607756.3113171514</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>391.0047230740843</v>
+        <v>485.9717688244027</v>
       </c>
       <c r="AB12" t="n">
-        <v>534.9899120209075</v>
+        <v>664.9280136668609</v>
       </c>
       <c r="AC12" t="n">
-        <v>483.9312256806887</v>
+        <v>601.4682172748234</v>
       </c>
       <c r="AD12" t="n">
-        <v>391004.7230740843</v>
+        <v>485971.7688244027</v>
       </c>
       <c r="AE12" t="n">
-        <v>534989.9120209075</v>
+        <v>664928.0136668609</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.413048235571444e-06</v>
+        <v>2.037141356797889e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>483931.2256806887</v>
+        <v>601468.2172748233</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>391.6729439227852</v>
+        <v>486.6399896731036</v>
       </c>
       <c r="AB13" t="n">
-        <v>535.9042012659233</v>
+        <v>665.8423029118767</v>
       </c>
       <c r="AC13" t="n">
-        <v>484.7582564433733</v>
+        <v>602.295248037508</v>
       </c>
       <c r="AD13" t="n">
-        <v>391672.9439227852</v>
+        <v>486639.9896731036</v>
       </c>
       <c r="AE13" t="n">
-        <v>535904.2012659233</v>
+        <v>665842.3029118767</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.412418014844621e-06</v>
+        <v>2.036232790002925e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.5234375</v>
       </c>
       <c r="AH13" t="n">
-        <v>484758.2564433733</v>
+        <v>602295.248037508</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.775015929919</v>
+        <v>738.951117908944</v>
       </c>
       <c r="AB2" t="n">
-        <v>838.4258105210744</v>
+        <v>1011.065519745532</v>
       </c>
       <c r="AC2" t="n">
-        <v>758.4076279029579</v>
+        <v>914.5708455803868</v>
       </c>
       <c r="AD2" t="n">
-        <v>612775.0159299191</v>
+        <v>738951.1179089439</v>
       </c>
       <c r="AE2" t="n">
-        <v>838425.8105210743</v>
+        <v>1011065.519745532</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045735057443322e-06</v>
+        <v>1.53091678463919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>758407.6279029578</v>
+        <v>914570.8455803868</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.3191257257583</v>
+        <v>575.660291086226</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.0384003658729</v>
+        <v>787.6438066038343</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.1449109274723</v>
+        <v>712.4721871665892</v>
       </c>
       <c r="AD3" t="n">
-        <v>466319.1257257583</v>
+        <v>575660.291086226</v>
       </c>
       <c r="AE3" t="n">
-        <v>638038.4003658729</v>
+        <v>787643.8066038343</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273098161278326e-06</v>
+        <v>1.863767815491748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>577144.9109274723</v>
+        <v>712472.1871665892</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>429.300143894823</v>
+        <v>530.1386343542672</v>
       </c>
       <c r="AB4" t="n">
-        <v>587.3873962625717</v>
+        <v>725.3590675894101</v>
       </c>
       <c r="AC4" t="n">
-        <v>531.3279675666595</v>
+        <v>656.1318162265213</v>
       </c>
       <c r="AD4" t="n">
-        <v>429300.143894823</v>
+        <v>530138.6343542672</v>
       </c>
       <c r="AE4" t="n">
-        <v>587387.3962625717</v>
+        <v>725359.0675894101</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360411774645719e-06</v>
+        <v>1.991591660814906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>531327.9675666594</v>
+        <v>656131.8162265213</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.8985160936419</v>
+        <v>498.4049238526547</v>
       </c>
       <c r="AB5" t="n">
-        <v>555.3682566980408</v>
+        <v>681.939604888603</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.3646897430228</v>
+        <v>616.8562461062807</v>
       </c>
       <c r="AD5" t="n">
-        <v>405898.5160936419</v>
+        <v>498404.9238526547</v>
       </c>
       <c r="AE5" t="n">
-        <v>555368.2566980408</v>
+        <v>681939.604888603</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404141020721036e-06</v>
+        <v>2.055609632020724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>502364.6897430228</v>
+        <v>616856.2461062806</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>385.070780702944</v>
+        <v>485.9091816538371</v>
       </c>
       <c r="AB6" t="n">
-        <v>526.8708302816519</v>
+        <v>664.8423791389419</v>
       </c>
       <c r="AC6" t="n">
-        <v>476.5870177074249</v>
+        <v>601.3907555860601</v>
       </c>
       <c r="AD6" t="n">
-        <v>385070.780702944</v>
+        <v>485909.1816538371</v>
       </c>
       <c r="AE6" t="n">
-        <v>526870.8302816519</v>
+        <v>664842.3791389419</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436279964136966e-06</v>
+        <v>2.102659836148247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.88802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>476587.0177074249</v>
+        <v>601390.7555860601</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.1260072187513</v>
+        <v>468.7176663237846</v>
       </c>
       <c r="AB7" t="n">
-        <v>514.632196585024</v>
+        <v>641.3201894282355</v>
       </c>
       <c r="AC7" t="n">
-        <v>465.5164220337728</v>
+        <v>580.113490647743</v>
       </c>
       <c r="AD7" t="n">
-        <v>376126.0072187513</v>
+        <v>468717.6663237846</v>
       </c>
       <c r="AE7" t="n">
-        <v>514632.196585024</v>
+        <v>641320.1894282355</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.455017620102977e-06</v>
+        <v>2.130091059591491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>465516.4220337728</v>
+        <v>580113.490647743</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>368.7747818872044</v>
+        <v>461.1958487916455</v>
       </c>
       <c r="AB8" t="n">
-        <v>504.5739257732288</v>
+        <v>631.0285068415933</v>
       </c>
       <c r="AC8" t="n">
-        <v>456.4180984713836</v>
+        <v>570.8040318027026</v>
       </c>
       <c r="AD8" t="n">
-        <v>368774.7818872044</v>
+        <v>461195.8487916455</v>
       </c>
       <c r="AE8" t="n">
-        <v>504573.9257732288</v>
+        <v>631028.5068415933</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467694513636683e-06</v>
+        <v>2.148649554833376e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.41927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>456418.0984713836</v>
+        <v>570804.0318027027</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>364.5554175253802</v>
+        <v>456.9764844298213</v>
       </c>
       <c r="AB9" t="n">
-        <v>498.8008053081626</v>
+        <v>625.2553863765271</v>
       </c>
       <c r="AC9" t="n">
-        <v>451.1959565208779</v>
+        <v>565.581889852197</v>
       </c>
       <c r="AD9" t="n">
-        <v>364555.4175253802</v>
+        <v>456976.4844298213</v>
       </c>
       <c r="AE9" t="n">
-        <v>498800.8053081626</v>
+        <v>625255.3863765271</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.471968437742332e-06</v>
+        <v>2.154906418943498e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>451195.9565208779</v>
+        <v>565581.889852197</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>363.4277532211609</v>
+        <v>455.8488201256019</v>
       </c>
       <c r="AB10" t="n">
-        <v>497.2578852580917</v>
+        <v>623.7124663264563</v>
       </c>
       <c r="AC10" t="n">
-        <v>449.800290594884</v>
+        <v>564.1862239262031</v>
       </c>
       <c r="AD10" t="n">
-        <v>363427.7532211608</v>
+        <v>455848.820125602</v>
       </c>
       <c r="AE10" t="n">
-        <v>497257.8852580917</v>
+        <v>623712.4663264563</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.160986535479887e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>449800.290594884</v>
+        <v>564186.2239262031</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.0385944744799</v>
+        <v>444.2460592853581</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.306491689774</v>
+        <v>607.837057067153</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.4667142372962</v>
+        <v>549.8259414453307</v>
       </c>
       <c r="AD2" t="n">
-        <v>351038.5944744799</v>
+        <v>444246.0592853581</v>
       </c>
       <c r="AE2" t="n">
-        <v>480306.491689774</v>
+        <v>607837.0570671529</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479760969670989e-06</v>
+        <v>2.289372871291121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>434466.7142372963</v>
+        <v>549825.9414453307</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.0076873753487</v>
+        <v>385.2772712513949</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.4837532720121</v>
+        <v>527.1533597597625</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.3077599772966</v>
+        <v>476.8425829686772</v>
       </c>
       <c r="AD3" t="n">
-        <v>300007.6873753486</v>
+        <v>385277.2712513949</v>
       </c>
       <c r="AE3" t="n">
-        <v>410483.7532720121</v>
+        <v>527153.3597597624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.633637788640235e-06</v>
+        <v>2.527439303700874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>371307.7599772966</v>
+        <v>476842.5829686772</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.4725258572106</v>
+        <v>380.7421097332568</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.2785452056902</v>
+        <v>520.9481516934405</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.6947682597602</v>
+        <v>471.2295912511408</v>
       </c>
       <c r="AD4" t="n">
-        <v>295472.5258572106</v>
+        <v>380742.1097332568</v>
       </c>
       <c r="AE4" t="n">
-        <v>404278.5452056902</v>
+        <v>520948.1516934406</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651959665176584e-06</v>
+        <v>2.555785508225236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.23697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>365694.7682597602</v>
+        <v>471229.5912511409</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.1966307283199</v>
+        <v>535.4756823809994</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.9822532152562</v>
+        <v>732.6614521535265</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.6751750136843</v>
+        <v>662.7372714567997</v>
       </c>
       <c r="AD2" t="n">
-        <v>431196.6307283199</v>
+        <v>535475.6823809994</v>
       </c>
       <c r="AE2" t="n">
-        <v>589982.2532152561</v>
+        <v>732661.4521535265</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30797230439366e-06</v>
+        <v>1.976730654515959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>533675.1750136843</v>
+        <v>662737.2714567997</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.4772116835169</v>
+        <v>454.4788647692881</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.4843359238088</v>
+        <v>621.8380329697828</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.6731993023287</v>
+        <v>562.4906838583069</v>
       </c>
       <c r="AD3" t="n">
-        <v>358477.2116835169</v>
+        <v>454478.864769288</v>
       </c>
       <c r="AE3" t="n">
-        <v>490484.3359238087</v>
+        <v>621838.0329697828</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491577663245049e-06</v>
+        <v>2.25421232592122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>443673.1993023288</v>
+        <v>562490.6838583068</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.5544083391628</v>
+        <v>418.7905289683533</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.2791245209209</v>
+        <v>573.0076774686881</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.1142396543815</v>
+        <v>518.320628952402</v>
       </c>
       <c r="AD4" t="n">
-        <v>330554.4083391628</v>
+        <v>418790.5289683533</v>
       </c>
       <c r="AE4" t="n">
-        <v>452279.1245209209</v>
+        <v>573007.6774686881</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557333281724607e-06</v>
+        <v>2.35358839552038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.54947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>409114.2396543815</v>
+        <v>518320.628952402</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>320.0145300686567</v>
+        <v>408.0800584972549</v>
       </c>
       <c r="AB5" t="n">
-        <v>437.8579980846022</v>
+        <v>558.3531392575223</v>
       </c>
       <c r="AC5" t="n">
-        <v>396.0694452849669</v>
+        <v>505.0646993003364</v>
       </c>
       <c r="AD5" t="n">
-        <v>320014.5300686567</v>
+        <v>408080.0584972549</v>
       </c>
       <c r="AE5" t="n">
-        <v>437857.9980846022</v>
+        <v>558353.1392575223</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.583393230875071e-06</v>
+        <v>2.392972639489315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>396069.445284967</v>
+        <v>505064.6993003364</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>321.0438255600668</v>
+        <v>409.1093539886649</v>
       </c>
       <c r="AB6" t="n">
-        <v>439.2663255852617</v>
+        <v>559.7614667581818</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.3433639855635</v>
+        <v>506.338618000933</v>
       </c>
       <c r="AD6" t="n">
-        <v>321043.8255600667</v>
+        <v>409109.3539886649</v>
       </c>
       <c r="AE6" t="n">
-        <v>439266.3255852616</v>
+        <v>559761.4667581818</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586537952731012e-06</v>
+        <v>2.397725238662618e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.15885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>397343.3639855635</v>
+        <v>506338.618000933</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.0725388006742</v>
+        <v>381.1342154632063</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.8359976194128</v>
+        <v>521.4846480516414</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.9127024080328</v>
+        <v>471.7148851498924</v>
       </c>
       <c r="AD2" t="n">
-        <v>298072.5388006743</v>
+        <v>381134.2154632063</v>
       </c>
       <c r="AE2" t="n">
-        <v>407835.9976194127</v>
+        <v>521484.6480516414</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624108970290917e-06</v>
+        <v>2.56688472255237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.43489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>368912.7024080328</v>
+        <v>471714.8851498924</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.7067814464914</v>
+        <v>359.8537094550441</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.60242581673</v>
+        <v>492.367720901608</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.4691416686226</v>
+        <v>445.3768366611943</v>
       </c>
       <c r="AD3" t="n">
-        <v>276706.7814464914</v>
+        <v>359853.7094550441</v>
       </c>
       <c r="AE3" t="n">
-        <v>378602.42581673</v>
+        <v>492367.7209016081</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69403984862506e-06</v>
+        <v>2.677409635913588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>342469.1416686226</v>
+        <v>445376.8366611943</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.5377749717641</v>
+        <v>775.0393565562376</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.0437981317268</v>
+        <v>1060.443039963483</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.5308461697181</v>
+        <v>959.235844570522</v>
       </c>
       <c r="AD2" t="n">
-        <v>639537.7749717641</v>
+        <v>775039.3565562377</v>
       </c>
       <c r="AE2" t="n">
-        <v>875043.7981317268</v>
+        <v>1060443.039963483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.007577965832021e-06</v>
+        <v>1.468934101392802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>791530.8461697181</v>
+        <v>959235.844570522</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.9000853170124</v>
+        <v>591.5903666548476</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.302909597142</v>
+        <v>809.4400387821561</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.3301406812323</v>
+        <v>732.1882175370159</v>
       </c>
       <c r="AD3" t="n">
-        <v>489900.0853170124</v>
+        <v>591590.3666548475</v>
       </c>
       <c r="AE3" t="n">
-        <v>670302.909597142</v>
+        <v>809440.0387821561</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244145575441468e-06</v>
+        <v>1.813822775842269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>606330.1406812322</v>
+        <v>732188.2175370159</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.075912689648</v>
+        <v>544.5955123183397</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.2360108716781</v>
+        <v>745.1396058122967</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.3776968516695</v>
+        <v>674.0245276435754</v>
       </c>
       <c r="AD4" t="n">
-        <v>443075.912689648</v>
+        <v>544595.5123183398</v>
       </c>
       <c r="AE4" t="n">
-        <v>606236.0108716781</v>
+        <v>745139.6058122967</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330339843073799e-06</v>
+        <v>1.939484216805953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.42447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>548377.6968516695</v>
+        <v>674024.5276435754</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>417.3474950087255</v>
+        <v>518.9523459834378</v>
       </c>
       <c r="AB5" t="n">
-        <v>571.0332547429603</v>
+        <v>710.0534943362283</v>
       </c>
       <c r="AC5" t="n">
-        <v>516.534642360498</v>
+        <v>642.2869854031162</v>
       </c>
       <c r="AD5" t="n">
-        <v>417347.4950087255</v>
+        <v>518952.3459834378</v>
       </c>
       <c r="AE5" t="n">
-        <v>571033.2547429602</v>
+        <v>710053.4943362282</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380137253107914e-06</v>
+        <v>2.012083178117843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>516534.642360498</v>
+        <v>642286.9854031162</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>407.0976299238636</v>
+        <v>500.2283877546867</v>
       </c>
       <c r="AB6" t="n">
-        <v>557.0089371417187</v>
+        <v>684.4345486449129</v>
       </c>
       <c r="AC6" t="n">
-        <v>503.8487859478656</v>
+        <v>619.113075932164</v>
       </c>
       <c r="AD6" t="n">
-        <v>407097.6299238636</v>
+        <v>500228.3877546866</v>
       </c>
       <c r="AE6" t="n">
-        <v>557008.9371417187</v>
+        <v>684434.5486449129</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.405382936714829e-06</v>
+        <v>2.048888514102486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.17447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>503848.7859478656</v>
+        <v>619113.075932164</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.9216044104364</v>
+        <v>489.4411145305771</v>
       </c>
       <c r="AB7" t="n">
-        <v>530.7714530477086</v>
+        <v>669.6749255187791</v>
       </c>
       <c r="AC7" t="n">
-        <v>480.1153705112475</v>
+        <v>605.762090521927</v>
       </c>
       <c r="AD7" t="n">
-        <v>387921.6044104364</v>
+        <v>489441.1145305771</v>
       </c>
       <c r="AE7" t="n">
-        <v>530771.4530477086</v>
+        <v>669674.9255187791</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.430030381373714e-06</v>
+        <v>2.084821685727304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.78385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>480115.3705112475</v>
+        <v>605762.090521927</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>381.2809319389893</v>
+        <v>474.496941115833</v>
       </c>
       <c r="AB8" t="n">
-        <v>521.6853920064818</v>
+        <v>649.2276481623255</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.8964703834288</v>
+        <v>587.2662726184394</v>
       </c>
       <c r="AD8" t="n">
-        <v>381280.9319389893</v>
+        <v>474496.941115833</v>
       </c>
       <c r="AE8" t="n">
-        <v>521685.3920064819</v>
+        <v>649227.6481623255</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.44204301945018e-06</v>
+        <v>2.102334746072604e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>471896.4703834288</v>
+        <v>587266.2726184394</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>374.3488310944672</v>
+        <v>467.3942480707186</v>
       </c>
       <c r="AB9" t="n">
-        <v>512.2005858083013</v>
+        <v>639.509430189298</v>
       </c>
       <c r="AC9" t="n">
-        <v>463.3168807767935</v>
+        <v>578.4755477291529</v>
       </c>
       <c r="AD9" t="n">
-        <v>374348.8310944672</v>
+        <v>467394.2480707186</v>
       </c>
       <c r="AE9" t="n">
-        <v>512200.5858083013</v>
+        <v>639509.430189298</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452619884051371e-06</v>
+        <v>2.117754611954322e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.4453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>463316.8807767935</v>
+        <v>578475.547729153</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>371.8328093368772</v>
+        <v>464.8782263131287</v>
       </c>
       <c r="AB10" t="n">
-        <v>508.7580538405207</v>
+        <v>636.0668982215172</v>
       </c>
       <c r="AC10" t="n">
-        <v>460.2028992283938</v>
+        <v>575.3615661807535</v>
       </c>
       <c r="AD10" t="n">
-        <v>371832.8093368773</v>
+        <v>464878.2263131287</v>
       </c>
       <c r="AE10" t="n">
-        <v>508758.0538405207</v>
+        <v>636066.8982215172</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.456161458623715e-06</v>
+        <v>2.12291782496449e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.39322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>460202.8992283939</v>
+        <v>575361.5661807535</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>370.0426377470131</v>
+        <v>463.0880547232646</v>
       </c>
       <c r="AB11" t="n">
-        <v>506.308662094472</v>
+        <v>633.6175064754686</v>
       </c>
       <c r="AC11" t="n">
-        <v>457.9872739928451</v>
+        <v>573.1459409452046</v>
       </c>
       <c r="AD11" t="n">
-        <v>370042.6377470131</v>
+        <v>463088.0547232646</v>
       </c>
       <c r="AE11" t="n">
-        <v>506308.662094472</v>
+        <v>633617.5064754686</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.461282384018862e-06</v>
+        <v>2.130383551884598e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>457987.2739928451</v>
+        <v>573145.9409452047</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.4377569606102</v>
+        <v>356.4914190239925</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.9201375946473</v>
+        <v>487.7672868000584</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.9972332347519</v>
+        <v>441.2154615335466</v>
       </c>
       <c r="AD2" t="n">
-        <v>267437.7569606102</v>
+        <v>356491.4190239925</v>
       </c>
       <c r="AE2" t="n">
-        <v>365920.1375946472</v>
+        <v>487767.2868000584</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700515568879988e-06</v>
+        <v>2.724625388504226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>330997.233234752</v>
+        <v>441215.4615335466</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.8481776980061</v>
+        <v>347.6371594894879</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.7452051202645</v>
+        <v>475.6524982825873</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.0298732631875</v>
+        <v>430.2568914289704</v>
       </c>
       <c r="AD3" t="n">
-        <v>265848.1776980061</v>
+        <v>347637.1594894879</v>
       </c>
       <c r="AE3" t="n">
-        <v>363745.2051202646</v>
+        <v>475652.4982825873</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.715894094654467e-06</v>
+        <v>2.749265399174936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>329029.8732631875</v>
+        <v>430256.8914289704</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.8513232553745</v>
+        <v>638.1788338758248</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.4422941153382</v>
+        <v>873.1844349720127</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.211310255939</v>
+        <v>789.8489380203346</v>
       </c>
       <c r="AD2" t="n">
-        <v>514851.3232553745</v>
+        <v>638178.8338758248</v>
       </c>
       <c r="AE2" t="n">
-        <v>704442.2941153382</v>
+        <v>873184.4349720126</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.166321462659042e-06</v>
+        <v>1.731804489495374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>637211.310255939</v>
+        <v>789848.9380203346</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.349718800886</v>
+        <v>510.1482726645608</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.8268327321825</v>
+        <v>698.0073728130384</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.1114297486433</v>
+        <v>631.3905288112618</v>
       </c>
       <c r="AD3" t="n">
-        <v>411349.718800886</v>
+        <v>510148.2726645608</v>
       </c>
       <c r="AE3" t="n">
-        <v>562826.8327321826</v>
+        <v>698007.3728130384</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.377314665125101e-06</v>
+        <v>2.045096310817664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>509111.4297486433</v>
+        <v>631390.5288112618</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.3399984785856</v>
+        <v>470.820088174267</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.3979653349029</v>
+        <v>644.1968157563714</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.7319139064707</v>
+        <v>582.715575796492</v>
       </c>
       <c r="AD4" t="n">
-        <v>380339.9984785856</v>
+        <v>470820.088174267</v>
       </c>
       <c r="AE4" t="n">
-        <v>520397.9653349029</v>
+        <v>644196.8157563714</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453989709341632e-06</v>
+        <v>2.158946728612181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.27864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>470731.9139064706</v>
+        <v>582715.5757964919</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.4545154726289</v>
+        <v>450.0198565143309</v>
       </c>
       <c r="AB5" t="n">
-        <v>491.8215260836722</v>
+        <v>615.7370211577899</v>
       </c>
       <c r="AC5" t="n">
-        <v>444.8827699100929</v>
+        <v>556.9719440508264</v>
       </c>
       <c r="AD5" t="n">
-        <v>359454.5154726289</v>
+        <v>450019.8565143309</v>
       </c>
       <c r="AE5" t="n">
-        <v>491821.5260836721</v>
+        <v>615737.0211577899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490909166063673e-06</v>
+        <v>2.21376633276762e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>444882.7699100929</v>
+        <v>556971.9440508265</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.513812176162</v>
+        <v>436.9085610172717</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.1154849299089</v>
+        <v>597.7975682291798</v>
       </c>
       <c r="AC6" t="n">
-        <v>428.8665684734601</v>
+        <v>540.7446073315426</v>
       </c>
       <c r="AD6" t="n">
-        <v>346513.812176162</v>
+        <v>436908.5610172717</v>
       </c>
       <c r="AE6" t="n">
-        <v>474115.4849299089</v>
+        <v>597797.5682291798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.519320230468371e-06</v>
+        <v>2.255952308472142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.31510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>428866.56847346</v>
+        <v>540744.6073315426</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.4566782812341</v>
+        <v>432.8514271223439</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.5643353467535</v>
+        <v>592.2464186460243</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.8452128154336</v>
+        <v>535.7232516735161</v>
       </c>
       <c r="AD7" t="n">
-        <v>342456.6782812341</v>
+        <v>432851.4271223439</v>
       </c>
       <c r="AE7" t="n">
-        <v>468564.3353467535</v>
+        <v>592246.4186460243</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526609584120364e-06</v>
+        <v>2.266775855653776e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>423845.2128154336</v>
+        <v>535723.2516735161</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>343.6023922383058</v>
+        <v>433.9971410794155</v>
       </c>
       <c r="AB8" t="n">
-        <v>470.1319517281515</v>
+        <v>593.8140350274224</v>
       </c>
       <c r="AC8" t="n">
-        <v>425.2632180895544</v>
+        <v>537.141256947637</v>
       </c>
       <c r="AD8" t="n">
-        <v>343602.3922383058</v>
+        <v>433997.1410794156</v>
       </c>
       <c r="AE8" t="n">
-        <v>470131.9517281515</v>
+        <v>593814.0350274224</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525539815495669e-06</v>
+        <v>2.265187416988894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.23697916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>425263.2180895544</v>
+        <v>537141.256947637</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.1895359870196</v>
+        <v>704.3965356111279</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.4726751763963</v>
+        <v>963.7864158050784</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.8401952999454</v>
+        <v>871.8039929633711</v>
       </c>
       <c r="AD2" t="n">
-        <v>579189.5359870195</v>
+        <v>704396.5356111279</v>
       </c>
       <c r="AE2" t="n">
-        <v>792472.6751763963</v>
+        <v>963786.4158050783</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083870694603379e-06</v>
+        <v>1.593769511242012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.28385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>716840.1952999454</v>
+        <v>871803.9929633711</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.7642074202033</v>
+        <v>550.981029533943</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.7554749056488</v>
+        <v>753.8765521758227</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.8931980023985</v>
+        <v>681.9276321085478</v>
       </c>
       <c r="AD3" t="n">
-        <v>450764.2074202033</v>
+        <v>550981.029533943</v>
       </c>
       <c r="AE3" t="n">
-        <v>616755.4749056489</v>
+        <v>753876.5521758227</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105016490234e-06</v>
+        <v>1.920552298467772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>557893.1980023986</v>
+        <v>681927.6321085477</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.6055240387559</v>
+        <v>507.8222566439447</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.7038602764213</v>
+        <v>694.8248150770469</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.4773865939229</v>
+        <v>628.5117099188454</v>
       </c>
       <c r="AD4" t="n">
-        <v>407605.5240387559</v>
+        <v>507822.2566439447</v>
       </c>
       <c r="AE4" t="n">
-        <v>557703.8602764213</v>
+        <v>694824.8150770469</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390079705412052e-06</v>
+        <v>2.044032248231153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.83854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>504477.3865939229</v>
+        <v>628511.7099188454</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.5397817796766</v>
+        <v>484.3980977717698</v>
       </c>
       <c r="AB5" t="n">
-        <v>537.0902470639094</v>
+        <v>662.7748475071813</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.8311076950253</v>
+        <v>599.520546271436</v>
       </c>
       <c r="AD5" t="n">
-        <v>392539.7817796766</v>
+        <v>484398.0977717697</v>
       </c>
       <c r="AE5" t="n">
-        <v>537090.2470639094</v>
+        <v>662774.8475071813</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435101839066217e-06</v>
+        <v>2.110234706057848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.12239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>485831.1076950253</v>
+        <v>599520.546271436</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>373.8897615335546</v>
+        <v>465.8333288716684</v>
       </c>
       <c r="AB6" t="n">
-        <v>511.5724665823412</v>
+        <v>637.3737116782623</v>
       </c>
       <c r="AC6" t="n">
-        <v>462.748708368188</v>
+        <v>576.5436591953109</v>
       </c>
       <c r="AD6" t="n">
-        <v>373889.7615335546</v>
+        <v>465833.3288716684</v>
       </c>
       <c r="AE6" t="n">
-        <v>511572.4665823412</v>
+        <v>637373.7116782623</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.460428312735235e-06</v>
+        <v>2.147475828787646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>462748.7083681881</v>
+        <v>576543.6591953109</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.4341365455483</v>
+        <v>456.2071116830699</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.6348633210176</v>
+        <v>624.202696642092</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.045851804085</v>
+        <v>564.6296673485569</v>
       </c>
       <c r="AD7" t="n">
-        <v>364434.1365455483</v>
+        <v>456207.1116830698</v>
       </c>
       <c r="AE7" t="n">
-        <v>498634.8633210176</v>
+        <v>624202.696642092</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478003276657625e-06</v>
+        <v>2.173318802308516e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>451045.851804085</v>
+        <v>564629.6673485569</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>356.2682241444775</v>
+        <v>448.041199281999</v>
       </c>
       <c r="AB8" t="n">
-        <v>487.4619017192428</v>
+        <v>613.0297350403171</v>
       </c>
       <c r="AC8" t="n">
-        <v>440.9392219762334</v>
+        <v>554.5230375207054</v>
       </c>
       <c r="AD8" t="n">
-        <v>356268.2241444775</v>
+        <v>448041.199281999</v>
       </c>
       <c r="AE8" t="n">
-        <v>487461.9017192428</v>
+        <v>613029.7350403171</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492019371325272e-06</v>
+        <v>2.193928663299501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>440939.2219762334</v>
+        <v>554523.0375207054</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>356.6582458401838</v>
+        <v>448.4312209777053</v>
       </c>
       <c r="AB9" t="n">
-        <v>487.9955466098511</v>
+        <v>613.5633799309253</v>
       </c>
       <c r="AC9" t="n">
-        <v>441.4219365474574</v>
+        <v>555.0057520919294</v>
       </c>
       <c r="AD9" t="n">
-        <v>356658.2458401838</v>
+        <v>448431.2209777053</v>
       </c>
       <c r="AE9" t="n">
-        <v>487995.5466098511</v>
+        <v>613563.3799309253</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.491873116424392e-06</v>
+        <v>2.193713603880465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>441421.9365474574</v>
+        <v>555005.7520919293</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>713.5665336071889</v>
+        <v>859.3751112942133</v>
       </c>
       <c r="AB2" t="n">
-        <v>976.3332116150491</v>
+        <v>1175.834940226892</v>
       </c>
       <c r="AC2" t="n">
-        <v>883.1533401907766</v>
+        <v>1063.61490382634</v>
       </c>
       <c r="AD2" t="n">
-        <v>713566.533607189</v>
+        <v>859375.1112942133</v>
       </c>
       <c r="AE2" t="n">
-        <v>976333.211615049</v>
+        <v>1175834.940226892</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.372654416458921e-07</v>
+        <v>1.356009872420921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.68229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>883153.3401907766</v>
+        <v>1063614.90382634</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>521.8401416275466</v>
+        <v>641.8173928350119</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.0047037370502</v>
+        <v>878.1628718618646</v>
       </c>
       <c r="AC3" t="n">
-        <v>645.861096924281</v>
+        <v>794.3522398806991</v>
       </c>
       <c r="AD3" t="n">
-        <v>521840.1416275466</v>
+        <v>641817.3928350119</v>
       </c>
       <c r="AE3" t="n">
-        <v>714004.7037370503</v>
+        <v>878162.8718618646</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183581133698077e-06</v>
+        <v>1.712372643642294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>645861.096924281</v>
+        <v>794352.2398806991</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>468.8238977870569</v>
+        <v>580.219153786193</v>
       </c>
       <c r="AB4" t="n">
-        <v>641.4655400028862</v>
+        <v>793.8814436727569</v>
       </c>
       <c r="AC4" t="n">
-        <v>580.2449691675497</v>
+        <v>718.1145129082324</v>
       </c>
       <c r="AD4" t="n">
-        <v>468823.8977870569</v>
+        <v>580219.153786193</v>
       </c>
       <c r="AE4" t="n">
-        <v>641465.5400028862</v>
+        <v>793881.4436727569</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279669899228799e-06</v>
+        <v>1.851391227811564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.9453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>580244.9691675497</v>
+        <v>718114.5129082324</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.4070784368392</v>
+        <v>545.8091152370113</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.6350793920777</v>
+        <v>746.8001108660052</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.6888542711754</v>
+        <v>675.5265564254914</v>
       </c>
       <c r="AD5" t="n">
-        <v>451407.0784368392</v>
+        <v>545809.1152370112</v>
       </c>
       <c r="AE5" t="n">
-        <v>617635.0793920778</v>
+        <v>746800.1108660052</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328114259715516e-06</v>
+        <v>1.921479196666737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>558688.8542711753</v>
+        <v>675526.5564254915</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>430.4426078032432</v>
+        <v>533.3412094486217</v>
       </c>
       <c r="AB6" t="n">
-        <v>588.9505657840227</v>
+        <v>729.7409721211476</v>
       </c>
       <c r="AC6" t="n">
-        <v>532.7419503829054</v>
+        <v>660.0955179397915</v>
       </c>
       <c r="AD6" t="n">
-        <v>430442.6078032432</v>
+        <v>533341.2094486217</v>
       </c>
       <c r="AE6" t="n">
-        <v>588950.5657840227</v>
+        <v>729740.9721211476</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359924252614032e-06</v>
+        <v>1.967501019829531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.52604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>532741.9503829054</v>
+        <v>660095.5179397915</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>420.3643061400344</v>
+        <v>514.681002085635</v>
       </c>
       <c r="AB7" t="n">
-        <v>575.1609888251312</v>
+        <v>704.2092531768609</v>
       </c>
       <c r="AC7" t="n">
-        <v>520.2684312951777</v>
+        <v>637.0005104175549</v>
       </c>
       <c r="AD7" t="n">
-        <v>420364.3061400345</v>
+        <v>514681.002085635</v>
       </c>
       <c r="AE7" t="n">
-        <v>575160.9888251312</v>
+        <v>704209.2531768609</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383405297667817e-06</v>
+        <v>2.00147275024112e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.1484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>520268.4312951777</v>
+        <v>637000.5104175549</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>401.8718739882148</v>
+        <v>504.6851347790217</v>
       </c>
       <c r="AB8" t="n">
-        <v>549.858827326483</v>
+        <v>690.5324665414104</v>
       </c>
       <c r="AC8" t="n">
-        <v>497.3810725781539</v>
+        <v>624.6290171031011</v>
       </c>
       <c r="AD8" t="n">
-        <v>401871.8739882148</v>
+        <v>504685.1347790217</v>
       </c>
       <c r="AE8" t="n">
-        <v>549858.8273264831</v>
+        <v>690532.4665414104</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.402180722470343e-06</v>
+        <v>2.02863651864638e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>497381.0725781539</v>
+        <v>624629.0171031011</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>397.0643871962165</v>
+        <v>491.4663344878375</v>
       </c>
       <c r="AB9" t="n">
-        <v>543.2810118063223</v>
+        <v>672.4459208107014</v>
       </c>
       <c r="AC9" t="n">
-        <v>491.4310345392153</v>
+        <v>608.2686259123047</v>
       </c>
       <c r="AD9" t="n">
-        <v>397064.3871962165</v>
+        <v>491466.3344878375</v>
       </c>
       <c r="AE9" t="n">
-        <v>543281.0118063224</v>
+        <v>672445.9208107014</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411074344745223e-06</v>
+        <v>2.041503566838344e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.70572916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>491431.0345392153</v>
+        <v>608268.6259123047</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>390.9426175343061</v>
+        <v>485.344564825927</v>
       </c>
       <c r="AB10" t="n">
-        <v>534.9049364814799</v>
+        <v>664.0698454858589</v>
       </c>
       <c r="AC10" t="n">
-        <v>483.8543600874802</v>
+        <v>600.6919514605697</v>
       </c>
       <c r="AD10" t="n">
-        <v>390942.6175343061</v>
+        <v>485344.564825927</v>
       </c>
       <c r="AE10" t="n">
-        <v>534904.9364814799</v>
+        <v>664069.8454858589</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420744394361562e-06</v>
+        <v>2.055493928761353e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH10" t="n">
-        <v>483854.3600874802</v>
+        <v>600691.9514605697</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>386.422881721159</v>
+        <v>480.6542368121878</v>
       </c>
       <c r="AB11" t="n">
-        <v>528.7208345452608</v>
+        <v>657.6523317747929</v>
       </c>
       <c r="AC11" t="n">
-        <v>478.2604601606122</v>
+        <v>594.8869162510506</v>
       </c>
       <c r="AD11" t="n">
-        <v>386422.881721159</v>
+        <v>480654.2368121878</v>
       </c>
       <c r="AE11" t="n">
-        <v>528720.8345452608</v>
+        <v>657652.3317747929</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.42514414929649e-06</v>
+        <v>2.061859373237273e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.49739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>478260.4601606122</v>
+        <v>594886.9162510505</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>383.6920091520552</v>
+        <v>477.9233642430839</v>
       </c>
       <c r="AB12" t="n">
-        <v>524.984334218618</v>
+        <v>653.91583144815</v>
       </c>
       <c r="AC12" t="n">
-        <v>474.880566180933</v>
+        <v>591.5070222713714</v>
       </c>
       <c r="AD12" t="n">
-        <v>383692.0091520551</v>
+        <v>477923.3642430839</v>
       </c>
       <c r="AE12" t="n">
-        <v>524984.334218618</v>
+        <v>653915.83144815</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.429661544737699e-06</v>
+        <v>2.06839501676335e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>474880.566180933</v>
+        <v>591507.0222713714</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.9094234214934</v>
+        <v>567.069692107059</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.0048511308422</v>
+        <v>775.8897700900588</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.6871951632935</v>
+        <v>701.8399394007946</v>
       </c>
       <c r="AD2" t="n">
-        <v>461909.4234214934</v>
+        <v>567069.6921070591</v>
       </c>
       <c r="AE2" t="n">
-        <v>632004.8511308422</v>
+        <v>775889.7700900588</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256170806260124e-06</v>
+        <v>1.886372372360533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>571687.1951632935</v>
+        <v>701839.9394007946</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.4556201583532</v>
+        <v>470.5199901021688</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.9784551998248</v>
+        <v>643.7862083347341</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.2113885983189</v>
+        <v>582.3441561708846</v>
       </c>
       <c r="AD3" t="n">
-        <v>373455.6201583532</v>
+        <v>470519.9901021688</v>
       </c>
       <c r="AE3" t="n">
-        <v>510978.4551998248</v>
+        <v>643786.2083347341</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.451426956182545e-06</v>
+        <v>2.179585528494708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.83854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>462211.3885983189</v>
+        <v>582344.1561708846</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.2383130163503</v>
+        <v>442.2173421055942</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.370290708403</v>
+        <v>605.0612767211147</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.2879331390591</v>
+        <v>547.3150776796862</v>
       </c>
       <c r="AD4" t="n">
-        <v>345238.3130163503</v>
+        <v>442217.3421055942</v>
       </c>
       <c r="AE4" t="n">
-        <v>472370.290708403</v>
+        <v>605061.2767211148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.521068570859608e-06</v>
+        <v>2.284165269751793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.78385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>427287.9331390591</v>
+        <v>547315.0776796861</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.1068433069636</v>
+        <v>419.9901526715597</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.0349904155765</v>
+        <v>574.6490555430777</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.7979667689157</v>
+        <v>519.8053562070605</v>
       </c>
       <c r="AD5" t="n">
-        <v>331106.8433069636</v>
+        <v>419990.1526715597</v>
       </c>
       <c r="AE5" t="n">
-        <v>453034.9904155765</v>
+        <v>574649.0555430776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.557111160911772e-06</v>
+        <v>2.338289872683091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>409797.9667689156</v>
+        <v>519805.3562070605</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.0757498788082</v>
+        <v>415.9590592434043</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.5194705478837</v>
+        <v>569.1335356753848</v>
       </c>
       <c r="AC6" t="n">
-        <v>404.8088403763146</v>
+        <v>514.8162298144595</v>
       </c>
       <c r="AD6" t="n">
-        <v>327075.7498788082</v>
+        <v>415959.0592434043</v>
       </c>
       <c r="AE6" t="n">
-        <v>447519.4705478837</v>
+        <v>569133.5356753848</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.56426368054783e-06</v>
+        <v>2.349030701372142e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.18489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>404808.8403763146</v>
+        <v>514816.2298144595</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>327.1780346781257</v>
+        <v>408.1362165186661</v>
       </c>
       <c r="AB7" t="n">
-        <v>447.6594211227966</v>
+        <v>558.4299771399342</v>
       </c>
       <c r="AC7" t="n">
-        <v>404.9354342647798</v>
+        <v>505.1342038830936</v>
       </c>
       <c r="AD7" t="n">
-        <v>327178.0346781257</v>
+        <v>408136.2165186661</v>
       </c>
       <c r="AE7" t="n">
-        <v>447659.4211227966</v>
+        <v>558429.9771399342</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569634433726506e-06</v>
+        <v>2.357095878786339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>404935.4342647798</v>
+        <v>505134.2038830935</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.6571759169849</v>
+        <v>474.8702284759296</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.8319414990019</v>
+        <v>649.7383963966857</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.1244719945573</v>
+        <v>587.728275758152</v>
       </c>
       <c r="AD2" t="n">
-        <v>380657.1759169849</v>
+        <v>474870.2284759296</v>
       </c>
       <c r="AE2" t="n">
-        <v>520831.9414990019</v>
+        <v>649738.3963966857</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.417753022084545e-06</v>
+        <v>2.174474088339415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>471124.4719945573</v>
+        <v>587728.275758152</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.3497181737101</v>
+        <v>412.477340369532</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.5801290036189</v>
+        <v>564.3696943095568</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.0089728320634</v>
+        <v>510.5070427824927</v>
       </c>
       <c r="AD3" t="n">
-        <v>318349.71817371</v>
+        <v>412477.3403695321</v>
       </c>
       <c r="AE3" t="n">
-        <v>435580.129003619</v>
+        <v>564369.6943095569</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580710701457133e-06</v>
+        <v>2.424409899282431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.8359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>394008.9728320634</v>
+        <v>510507.0427824927</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.151586042217</v>
+        <v>390.4211057545097</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.1536182439281</v>
+        <v>534.1913810568865</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.4365009939984</v>
+        <v>483.2089053911287</v>
       </c>
       <c r="AD4" t="n">
-        <v>304151.586042217</v>
+        <v>390421.1057545096</v>
       </c>
       <c r="AE4" t="n">
-        <v>416153.6182439281</v>
+        <v>534191.3810568865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62766775485265e-06</v>
+        <v>2.496430127264872e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.2109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>376436.5009939984</v>
+        <v>483208.9053911287</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.7705953226726</v>
+        <v>391.0401150349653</v>
       </c>
       <c r="AB5" t="n">
-        <v>417.0005740502096</v>
+        <v>535.038336863168</v>
       </c>
       <c r="AC5" t="n">
-        <v>377.2026245268382</v>
+        <v>483.9750289239686</v>
       </c>
       <c r="AD5" t="n">
-        <v>304770.5953226726</v>
+        <v>391040.1150349653</v>
       </c>
       <c r="AE5" t="n">
-        <v>417000.5740502096</v>
+        <v>535038.3368631679</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.628383644430109e-06</v>
+        <v>2.497528120576857e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>377202.6245268382</v>
+        <v>483975.0289239686</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.099169167494</v>
+        <v>413.4501196670507</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.2880020856224</v>
+        <v>565.7006938604154</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.31314714975</v>
+        <v>511.7110136042871</v>
       </c>
       <c r="AD2" t="n">
-        <v>329099.1691674941</v>
+        <v>413450.1196670507</v>
       </c>
       <c r="AE2" t="n">
-        <v>450288.0020856224</v>
+        <v>565700.6938604154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546470434076336e-06</v>
+        <v>2.41632954854965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>407313.14714975</v>
+        <v>511711.0136042871</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.7501999597564</v>
+        <v>370.9304687501697</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.3442741109326</v>
+        <v>507.5234316413303</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.8994872484317</v>
+        <v>459.086107639091</v>
       </c>
       <c r="AD3" t="n">
-        <v>286750.1999597564</v>
+        <v>370930.4687501697</v>
       </c>
       <c r="AE3" t="n">
-        <v>392344.2741109327</v>
+        <v>507523.4316413303</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671679052481857e-06</v>
+        <v>2.611965545022508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.3671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>354899.4872484317</v>
+        <v>459086.107639091</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.298830991946</v>
+        <v>371.4790997823593</v>
       </c>
       <c r="AB4" t="n">
-        <v>393.0949352930674</v>
+        <v>508.274092823465</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.5785063809031</v>
+        <v>459.7651267715624</v>
       </c>
       <c r="AD4" t="n">
-        <v>287298.830991946</v>
+        <v>371479.0997823593</v>
       </c>
       <c r="AE4" t="n">
-        <v>393094.9352930674</v>
+        <v>508274.092823465</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67343444165556e-06</v>
+        <v>2.614708305980726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.34114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>355578.5063809031</v>
+        <v>459765.1267715624</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.9486423792297</v>
+        <v>340.0727087840208</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.6732006279854</v>
+        <v>465.3024831073548</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.728249550522</v>
+        <v>420.8946671757247</v>
       </c>
       <c r="AD2" t="n">
-        <v>259948.6423792297</v>
+        <v>340072.7087840209</v>
       </c>
       <c r="AE2" t="n">
-        <v>355673.2006279854</v>
+        <v>465302.4831073548</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721272811352582e-06</v>
+        <v>2.805117219207711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>321728.249550522</v>
+        <v>420894.6671757248</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.7526924603025</v>
+        <v>669.9546939934567</v>
       </c>
       <c r="AB2" t="n">
-        <v>746.7229107337151</v>
+        <v>916.661568636967</v>
       </c>
       <c r="AC2" t="n">
-        <v>675.4567241654762</v>
+        <v>829.176675068846</v>
       </c>
       <c r="AD2" t="n">
-        <v>545752.6924603025</v>
+        <v>669954.6939934567</v>
       </c>
       <c r="AE2" t="n">
-        <v>746722.9107337152</v>
+        <v>916661.568636967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125809457014254e-06</v>
+        <v>1.663249281619703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>675456.7241654762</v>
+        <v>829176.675068846</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.6827474319181</v>
+        <v>534.3756090326503</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.8061589506428</v>
+        <v>731.1562832665044</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.0885185174831</v>
+        <v>661.3757537758371</v>
       </c>
       <c r="AD3" t="n">
-        <v>426682.747431918</v>
+        <v>534375.6090326504</v>
       </c>
       <c r="AE3" t="n">
-        <v>583806.1589506428</v>
+        <v>731156.2832665044</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341719468998225e-06</v>
+        <v>1.982230588882158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>528088.518517483</v>
+        <v>661375.7537758371</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.4535117342104</v>
+        <v>493.9345185502931</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.7086968155096</v>
+        <v>675.8229991335492</v>
       </c>
       <c r="AC4" t="n">
-        <v>488.19965627735</v>
+        <v>611.3234006197791</v>
       </c>
       <c r="AD4" t="n">
-        <v>394453.5117342104</v>
+        <v>493934.5185502932</v>
       </c>
       <c r="AE4" t="n">
-        <v>539708.6968155096</v>
+        <v>675822.9991335492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42096853725095e-06</v>
+        <v>2.099311641114522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.56510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>488199.65627735</v>
+        <v>611323.4006197791</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.7228425725519</v>
+        <v>471.118508534063</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.6075924621795</v>
+        <v>644.6051276580215</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.0667976728277</v>
+        <v>583.0849189833179</v>
       </c>
       <c r="AD5" t="n">
-        <v>371722.8425725519</v>
+        <v>471118.508534063</v>
       </c>
       <c r="AE5" t="n">
-        <v>508607.5924621795</v>
+        <v>644605.1276580215</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462181007041277e-06</v>
+        <v>2.160198152899853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>460066.7976728277</v>
+        <v>583084.9189833179</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.1571770243856</v>
+        <v>452.4263290558188</v>
       </c>
       <c r="AB6" t="n">
-        <v>494.1511827349119</v>
+        <v>619.0296630551295</v>
       </c>
       <c r="AC6" t="n">
-        <v>446.990087400232</v>
+        <v>559.9503408267358</v>
       </c>
       <c r="AD6" t="n">
-        <v>361157.1770243857</v>
+        <v>452426.3290558188</v>
       </c>
       <c r="AE6" t="n">
-        <v>494151.1827349119</v>
+        <v>619029.6630551295</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488572743967938e-06</v>
+        <v>2.199188798439802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>446990.087400232</v>
+        <v>559950.3408267358</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>352.3054711310872</v>
+        <v>443.4040309619281</v>
       </c>
       <c r="AB7" t="n">
-        <v>482.0398882219977</v>
+        <v>606.6849567673681</v>
       </c>
       <c r="AC7" t="n">
-        <v>436.0346778373216</v>
+        <v>548.7837959811744</v>
       </c>
       <c r="AD7" t="n">
-        <v>352305.4711310872</v>
+        <v>443404.0309619281</v>
       </c>
       <c r="AE7" t="n">
-        <v>482039.8882219977</v>
+        <v>606684.9567673681</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.504427481449999e-06</v>
+        <v>2.222612283260443e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>436034.6778373217</v>
+        <v>548783.7959811745</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>349.7136988540071</v>
+        <v>440.812258684848</v>
       </c>
       <c r="AB8" t="n">
-        <v>478.4937110515735</v>
+        <v>603.1387795969441</v>
       </c>
       <c r="AC8" t="n">
-        <v>432.8269428389519</v>
+        <v>545.5760609828047</v>
       </c>
       <c r="AD8" t="n">
-        <v>349713.6988540071</v>
+        <v>440812.258684848</v>
       </c>
       <c r="AE8" t="n">
-        <v>478493.7110515735</v>
+        <v>603138.7795969441</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507455637832442e-06</v>
+        <v>2.227086023373702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.26302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>432826.9428389519</v>
+        <v>545576.0609828047</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>350.7950357963263</v>
+        <v>441.8935956271673</v>
       </c>
       <c r="AB9" t="n">
-        <v>479.9732439612737</v>
+        <v>604.6183125066443</v>
       </c>
       <c r="AC9" t="n">
-        <v>434.1652712042879</v>
+        <v>546.9143893481406</v>
       </c>
       <c r="AD9" t="n">
-        <v>350795.0357963262</v>
+        <v>441893.5956271673</v>
       </c>
       <c r="AE9" t="n">
-        <v>479973.2439612737</v>
+        <v>604618.3125066443</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.508071116771964e-06</v>
+        <v>2.22799532014469e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>434165.2712042879</v>
+        <v>546914.3893481406</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.2675565529876</v>
+        <v>820.0895831358572</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.9308615778713</v>
+        <v>1122.082747445446</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.752196893987</v>
+        <v>1014.992744882279</v>
       </c>
       <c r="AD2" t="n">
-        <v>675267.5565529875</v>
+        <v>820089.5831358572</v>
       </c>
       <c r="AE2" t="n">
-        <v>923930.8615778713</v>
+        <v>1122082.747445446</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.726522265788953e-07</v>
+        <v>1.412455426420249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>835752.196893987</v>
+        <v>1014992.744882279</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.992621808356</v>
+        <v>616.6988065369502</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.3214279772022</v>
+        <v>843.7945139350387</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.2472425702841</v>
+        <v>763.263949798116</v>
       </c>
       <c r="AD3" t="n">
-        <v>505992.621808356</v>
+        <v>616698.8065369502</v>
       </c>
       <c r="AE3" t="n">
-        <v>692321.4279772022</v>
+        <v>843794.5139350387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212618500679374e-06</v>
+        <v>1.760927014464856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>626247.2425702842</v>
+        <v>763263.949798116</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.5654103407346</v>
+        <v>557.9132044292144</v>
       </c>
       <c r="AB4" t="n">
-        <v>623.3246925556437</v>
+        <v>763.3614596935051</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.8354587398327</v>
+        <v>690.5073133648939</v>
       </c>
       <c r="AD4" t="n">
-        <v>455565.4103407346</v>
+        <v>557913.2044292144</v>
       </c>
       <c r="AE4" t="n">
-        <v>623324.6925556436</v>
+        <v>763361.4596935052</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305615811057414e-06</v>
+        <v>1.895974827132661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>563835.4587398327</v>
+        <v>690507.3133648939</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.1836167967599</v>
+        <v>532.4460700306679</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.5962028630753</v>
+        <v>728.5162028787393</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.4214073617817</v>
+        <v>658.9876389549041</v>
       </c>
       <c r="AD5" t="n">
-        <v>430183.6167967599</v>
+        <v>532446.0700306679</v>
       </c>
       <c r="AE5" t="n">
-        <v>588596.2028630753</v>
+        <v>728516.2028787392</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352778732749135e-06</v>
+        <v>1.964463360699906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.83854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>532421.4073617817</v>
+        <v>658987.6389549042</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.9363905681503</v>
+        <v>512.6699504699027</v>
       </c>
       <c r="AB6" t="n">
-        <v>573.20725174449</v>
+        <v>701.4576436348805</v>
       </c>
       <c r="AC6" t="n">
-        <v>518.5011561394257</v>
+        <v>634.5115106283529</v>
       </c>
       <c r="AD6" t="n">
-        <v>418936.3905681503</v>
+        <v>512669.9504699027</v>
       </c>
       <c r="AE6" t="n">
-        <v>573207.25174449</v>
+        <v>701457.6436348804</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38286051579999e-06</v>
+        <v>2.008147193981227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>518501.1561394257</v>
+        <v>634511.5106283529</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.2506420631556</v>
+        <v>502.4277544424921</v>
       </c>
       <c r="AB7" t="n">
-        <v>547.6405862829125</v>
+        <v>687.4438191763786</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.3745373464608</v>
+        <v>621.8351459076445</v>
       </c>
       <c r="AD7" t="n">
-        <v>400250.6420631556</v>
+        <v>502427.7544424921</v>
       </c>
       <c r="AE7" t="n">
-        <v>547640.5862829125</v>
+        <v>687443.8191763787</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407082519344883e-06</v>
+        <v>2.043321637025572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>495374.5373464608</v>
+        <v>621835.1459076444</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>393.1275719979927</v>
+        <v>486.9463832457657</v>
       </c>
       <c r="AB8" t="n">
-        <v>537.8944875720837</v>
+        <v>666.2615241151235</v>
       </c>
       <c r="AC8" t="n">
-        <v>486.5585926178581</v>
+        <v>602.6744593574975</v>
       </c>
       <c r="AD8" t="n">
-        <v>393127.5719979927</v>
+        <v>486946.3832457657</v>
       </c>
       <c r="AE8" t="n">
-        <v>537894.4875720837</v>
+        <v>666261.5241151236</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.419490068663178e-06</v>
+        <v>2.061339495705485e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.7578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>486558.5926178581</v>
+        <v>602674.4593574975</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>383.8578826138864</v>
+        <v>477.6766938616594</v>
       </c>
       <c r="AB9" t="n">
-        <v>525.2112896069162</v>
+        <v>653.5783261499561</v>
       </c>
       <c r="AC9" t="n">
-        <v>475.085861265506</v>
+        <v>591.2017280051454</v>
       </c>
       <c r="AD9" t="n">
-        <v>383857.8826138864</v>
+        <v>477676.6938616594</v>
       </c>
       <c r="AE9" t="n">
-        <v>525211.2896069163</v>
+        <v>653578.3261499561</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.434957988654627e-06</v>
+        <v>2.083801529853294e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.5234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>475085.861265506</v>
+        <v>591201.7280051453</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>378.6696770882972</v>
+        <v>472.3178961354781</v>
       </c>
       <c r="AB10" t="n">
-        <v>518.1125579193313</v>
+        <v>646.2461826875242</v>
       </c>
       <c r="AC10" t="n">
-        <v>468.6646225670517</v>
+        <v>584.5693540240401</v>
       </c>
       <c r="AD10" t="n">
-        <v>378669.6770882972</v>
+        <v>472317.896135478</v>
       </c>
       <c r="AE10" t="n">
-        <v>518112.5579193312</v>
+        <v>646246.1826875242</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439180825707508e-06</v>
+        <v>2.089933802979536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>468664.6225670517</v>
+        <v>584569.35402404</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>377.7983874378631</v>
+        <v>471.446606485044</v>
       </c>
       <c r="AB11" t="n">
-        <v>516.9204209810209</v>
+        <v>645.0540457492137</v>
       </c>
       <c r="AC11" t="n">
-        <v>467.5862615049589</v>
+        <v>583.4909929619472</v>
       </c>
       <c r="AD11" t="n">
-        <v>377798.3874378632</v>
+        <v>471446.606485044</v>
       </c>
       <c r="AE11" t="n">
-        <v>516920.4209810209</v>
+        <v>645054.0457492138</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.443783243619074e-06</v>
+        <v>2.096617291667688e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.39322916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>467586.2615049589</v>
+        <v>583490.9929619472</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>378.5341107350088</v>
+        <v>472.1823297821896</v>
       </c>
       <c r="AB12" t="n">
-        <v>517.9270700539967</v>
+        <v>646.0606948221894</v>
       </c>
       <c r="AC12" t="n">
-        <v>468.4968374032508</v>
+        <v>584.401568860239</v>
       </c>
       <c r="AD12" t="n">
-        <v>378534.1107350088</v>
+        <v>472182.3297821896</v>
       </c>
       <c r="AE12" t="n">
-        <v>517927.0700539966</v>
+        <v>646060.6948221894</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443901862637413e-06</v>
+        <v>2.096789546530784e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.39322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>468496.8374032507</v>
+        <v>584401.568860239</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.9979585539865</v>
+        <v>336.2153339965307</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.426480141824</v>
+        <v>460.0246527477456</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.6503388792829</v>
+        <v>416.1205455381551</v>
       </c>
       <c r="AD2" t="n">
-        <v>250997.9585539865</v>
+        <v>336215.3339965307</v>
       </c>
       <c r="AE2" t="n">
-        <v>343426.480141824</v>
+        <v>460024.6527477456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689650408986576e-06</v>
+        <v>2.81654656402828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>310650.3388792829</v>
+        <v>416120.5455381551</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.059701019188</v>
+        <v>505.3702822375295</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.0617734916954</v>
+        <v>691.4699155207132</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.514825284792</v>
+        <v>625.4769972675373</v>
       </c>
       <c r="AD2" t="n">
-        <v>410059.701019188</v>
+        <v>505370.2822375295</v>
       </c>
       <c r="AE2" t="n">
-        <v>561061.7734916954</v>
+        <v>691469.9155207132</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.360012529453047e-06</v>
+        <v>2.069812074199264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>507514.8252847921</v>
+        <v>625476.9972675373</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.9206962599792</v>
+        <v>430.2033956479332</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.199225216301</v>
+        <v>588.623265159832</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.4195096869051</v>
+        <v>532.4458868709182</v>
       </c>
       <c r="AD3" t="n">
-        <v>342920.6962599792</v>
+        <v>430203.3956479332</v>
       </c>
       <c r="AE3" t="n">
-        <v>469199.225216301</v>
+        <v>588623.2651598321</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.532509315733094e-06</v>
+        <v>2.332336075464606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.20052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>424419.5096869051</v>
+        <v>532445.8868709182</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.1485142225625</v>
+        <v>403.345872755945</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.5683446473943</v>
+        <v>551.8756174687277</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.284628947731</v>
+        <v>499.2053830998054</v>
       </c>
       <c r="AD4" t="n">
-        <v>316148.5142225625</v>
+        <v>403345.872755945</v>
       </c>
       <c r="AE4" t="n">
-        <v>432568.3446473943</v>
+        <v>551875.6174687276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593779379929809e-06</v>
+        <v>2.425583391878908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.34114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>391284.628947731</v>
+        <v>499205.3830998054</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.16661520972</v>
+        <v>399.3639737431024</v>
       </c>
       <c r="AB5" t="n">
-        <v>427.1201347490368</v>
+        <v>546.4274075703702</v>
       </c>
       <c r="AC5" t="n">
-        <v>386.356388555462</v>
+        <v>494.2771427075365</v>
       </c>
       <c r="AD5" t="n">
-        <v>312166.61520972</v>
+        <v>399363.9737431024</v>
       </c>
       <c r="AE5" t="n">
-        <v>427120.1347490367</v>
+        <v>546427.4075703701</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.610161610314176e-06</v>
+        <v>2.450515616779449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.1328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>386356.3885554621</v>
+        <v>494277.1427075365</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.2194955420403</v>
+        <v>597.3804600399968</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.108184875296</v>
+        <v>817.3622999926095</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.9631230205591</v>
+        <v>739.3543892565071</v>
       </c>
       <c r="AD2" t="n">
-        <v>491219.4955420403</v>
+        <v>597380.4600399968</v>
       </c>
       <c r="AE2" t="n">
-        <v>672108.1848752961</v>
+        <v>817362.2999926094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.212501090117451e-06</v>
+        <v>1.81015584394889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>607963.1230205591</v>
+        <v>739354.3892565072</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.6996683348329</v>
+        <v>494.523729970615</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.7819873699168</v>
+        <v>676.6291841930067</v>
       </c>
       <c r="AC3" t="n">
-        <v>490.979636294635</v>
+        <v>612.0526445086499</v>
       </c>
       <c r="AD3" t="n">
-        <v>396699.6683348329</v>
+        <v>494523.729970615</v>
       </c>
       <c r="AE3" t="n">
-        <v>542781.9873699168</v>
+        <v>676629.1841930067</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412387680616896e-06</v>
+        <v>2.108568672496979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>490979.636294635</v>
+        <v>612052.6445086499</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.9751306407892</v>
+        <v>457.7183119781117</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.4798076597604</v>
+        <v>626.2703875552198</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.4284014550602</v>
+        <v>566.5000207429584</v>
       </c>
       <c r="AD4" t="n">
-        <v>367975.1306407892</v>
+        <v>457718.3119781117</v>
       </c>
       <c r="AE4" t="n">
-        <v>503479.8076597604</v>
+        <v>626270.3875552198</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.484383077295655e-06</v>
+        <v>2.216051370119007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.0703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>455428.4014550602</v>
+        <v>566500.0207429584</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.8815271375552</v>
+        <v>435.7099598208982</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.2503646456399</v>
+        <v>596.1575891937488</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.0840140549176</v>
+        <v>539.2611455935282</v>
       </c>
       <c r="AD5" t="n">
-        <v>345881.5271375552</v>
+        <v>435709.9598208982</v>
       </c>
       <c r="AE5" t="n">
-        <v>473250.3646456399</v>
+        <v>596157.5891937488</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52292149368694e-06</v>
+        <v>2.273585784080204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>428084.0140549177</v>
+        <v>539261.1455935282</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>335.7849029175039</v>
+        <v>425.4427434002547</v>
       </c>
       <c r="AB6" t="n">
-        <v>459.435717956142</v>
+        <v>582.1095307294039</v>
       </c>
       <c r="AC6" t="n">
-        <v>415.5878178564871</v>
+        <v>526.5538141124465</v>
       </c>
       <c r="AD6" t="n">
-        <v>335784.9029175038</v>
+        <v>425442.7434002547</v>
       </c>
       <c r="AE6" t="n">
-        <v>459435.717956142</v>
+        <v>582109.530729404</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544203151824686e-06</v>
+        <v>2.305357399100551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.2109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>415587.8178564871</v>
+        <v>526553.8141124465</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>334.5355963903968</v>
+        <v>424.1934368731476</v>
       </c>
       <c r="AB7" t="n">
-        <v>457.7263616502401</v>
+        <v>580.4001744235019</v>
       </c>
       <c r="AC7" t="n">
-        <v>414.0416001173237</v>
+        <v>525.007596373283</v>
       </c>
       <c r="AD7" t="n">
-        <v>334535.5963903968</v>
+        <v>424193.4368731476</v>
       </c>
       <c r="AE7" t="n">
-        <v>457726.36165024</v>
+        <v>580400.1744235018</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5488569423158e-06</v>
+        <v>2.312305092692471e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>414041.6001173237</v>
+        <v>525007.5963732831</v>
       </c>
     </row>
   </sheetData>
